--- a/datafiles/ExcelData.xlsx.xlsx
+++ b/datafiles/ExcelData.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhekrishna-NUC\IdeaProjects\SeleniumRestart\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF32866B-4105-4A6C-9CCA-6C2ED76BB10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F3314-A417-4CA5-80F7-BDF7894DDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="5505" windowWidth="17205" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18570" yWindow="7215" windowWidth="8970" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/datafiles/ExcelData.xlsx.xlsx
+++ b/datafiles/ExcelData.xlsx.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhekrishna-NUC\IdeaProjects\SeleniumRestart\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F3314-A417-4CA5-80F7-BDF7894DDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1276DC-05E4-4751-B382-90BD3CA4C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18570" yWindow="7215" windowWidth="8970" windowHeight="6480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -373,9 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
